--- a/Supplementary tables/Table S3 Overlapped genes in male and female CRC patients from TCGA and GSE39582 revealed by variable importance analysis (VMIP)..xlsx
+++ b/Supplementary tables/Table S3 Overlapped genes in male and female CRC patients from TCGA and GSE39582 revealed by variable importance analysis (VMIP)..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxy03\Research\ferr\Draft\ferrdraft022025\Supplementary tables\st new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongyan\Desktop\Submission\Supplementary tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F8D40-C6A6-4068-85AE-6375FB33E90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594D1547-56CF-474B-B61B-7070B7D0C4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -291,13 +291,13 @@
     <t>Overlapped genes in female CRC patients from TCGA-CRC and GSE39582 revealed by variable importance analysis (VMIP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S5. Overlapped genes in male and female CRC patients from TCGA-CRC and GSE39582 revealed by variable importance analysis (VMIP). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheet I: Overlapped genes in male CRC patients from TCGA-CRC and GSE39582 revealed by VMIP; </t>
   </si>
   <si>
     <t xml:space="preserve">Sheet II: Overlapped genes in female CRC patients from TCGA-CRC and GSE39582 revealed by VMIP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S3 Overlapped genes in male and female CRC patients from TCGA-CRC and GSE39582 revealed by variable importance analysis (VMIP). </t>
   </si>
 </sst>
 </file>
@@ -1173,27 +1173,27 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
   </sheetData>
@@ -1209,13 +1209,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="3" customWidth="1"/>
+    <col min="2" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>84</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2410,13 +2410,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>84</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
